--- a/Tests/Validation/Wheat/FAR/Observed/FAR RRC W21-06.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR RRC W21-06.xlsx
@@ -118,10 +118,10 @@
     <x:t>Wheat.Leaf.StemPopulation.err</x:t>
   </x:si>
   <x:si>
-    <x:t>NDVIModel.Script.NDVI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NDVIModel.Script.NDVI.err</x:t>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
   </x:si>
   <x:si>
     <x:t>FAR RRC W21-06</x:t>
